--- a/hopdonggvmList.xlsx
+++ b/hopdonggvmList.xlsx
@@ -479,10 +479,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>45203.626967592594</v>
+        <v>45211.99178240741</v>
       </c>
       <c r="B2" s="1">
-        <v>46309.626967592594</v>
+        <v>45953.99178240741</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>Nguyễn Văn A</v>
       </c>
       <c r="F2" s="1">
-        <v>32429.626967592594</v>
+        <v>45583.78344907407</v>
       </c>
       <c r="G2" t="str">
         <v>0342567484</v>
@@ -503,7 +503,7 @@
         <v>Hà Nội</v>
       </c>
       <c r="I2" t="str">
-        <v>gv1@gmail.com</v>
+        <v>GV3@gmail.com</v>
       </c>
       <c r="J2">
         <v>456789</v>
@@ -515,19 +515,19 @@
         <v>Giảng Viên</v>
       </c>
       <c r="M2">
-        <v>4.300000190734863</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>3472343</v>
+        <v>347234345</v>
       </c>
       <c r="O2" t="str">
         <v>0364837342</v>
       </c>
       <c r="P2" t="str">
-        <v>MB Bank</v>
+        <v xml:space="preserve">MB bank </v>
       </c>
       <c r="Q2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="R2">
         <v>30000000</v>
@@ -539,7 +539,7 @@
         <v>27000000</v>
       </c>
       <c r="U2" s="1">
-        <v>45946.0000462963</v>
+        <v>45938.0000462963</v>
       </c>
       <c r="V2" t="str">
         <v>Ba Mươi Triệu Không Trăm Nghìn Không Trăm Đồng</v>
